--- a/data/trans_camb/P1422-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Clase-trans_camb.xlsx
@@ -612,13 +612,13 @@
         <v>1.069107070799538</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.500913564847088</v>
+        <v>0.5009135648470884</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9525691551976033</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1778546596799045</v>
+        <v>0.1778546596799044</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.007585863165108</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5229317172756386</v>
+        <v>-0.5431301489691681</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9637469240919098</v>
+        <v>-1.215770448490278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.351817528901269</v>
+        <v>-0.3459039222992799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9947117082174705</v>
+        <v>-1.133888257382095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2993849628061507</v>
+        <v>-0.05228553740028285</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6664435208204571</v>
+        <v>-0.6901337400875608</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.900257396264726</v>
+        <v>2.706613766419413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.649320524051571</v>
+        <v>1.701163021156473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.109373659783579</v>
+        <v>3.092359760646083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9059523825047998</v>
+        <v>0.8346538939552075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.127214452285909</v>
+        <v>2.246734607638233</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.071645062347325</v>
+        <v>1.107624646234755</v>
       </c>
     </row>
     <row r="7">
@@ -690,13 +690,13 @@
         <v>1.580662762138103</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.7405950635154883</v>
+        <v>0.7405950635154889</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.724159154435457</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.5086291075901023</v>
+        <v>0.5086291075901019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.866947589244578</v>
@@ -713,18 +713,18 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8723654543383064</v>
+        <v>-0.7982380082350424</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8328113134718658</v>
+        <v>-0.8800463580128242</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.5581779050722091</v>
+        <v>-0.6356690177296553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7301436181253885</v>
+        <v>-0.7146067091250029</v>
       </c>
     </row>
     <row r="9">
@@ -739,10 +739,10 @@
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>12.00781322006676</v>
+        <v>12.71777847618217</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.248304192815014</v>
+        <v>6.252241671283521</v>
       </c>
     </row>
     <row r="10">
@@ -783,20 +783,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2502970587052853</v>
+        <v>-0.4538160837865707</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2245899883541251</v>
+        <v>0.2846855716130612</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.2800558023564249</v>
+        <v>0.2939308900010238</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2624769024848321</v>
+        <v>-0.2670129222704319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4285402997873137</v>
+        <v>0.4044000388660229</v>
       </c>
     </row>
     <row r="12">
@@ -807,20 +807,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.695003718520858</v>
+        <v>1.710039417334473</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.374937050419927</v>
+        <v>2.464111042523995</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>1.608243748884738</v>
+        <v>1.564854252366575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7418672832541058</v>
+        <v>0.7202248397387411</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.731922224252176</v>
+        <v>1.646952066739433</v>
       </c>
     </row>
     <row r="13">
@@ -834,7 +834,7 @@
         <v>1.310716467425238</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>4.926227926955592</v>
+        <v>4.926227926955591</v>
       </c>
       <c r="E13" s="6" t="inlineStr"/>
       <c r="F13" s="6" t="inlineStr">
@@ -904,7 +904,7 @@
         <v>-0.5379062688969679</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9950181888723005</v>
+        <v>0.9950181888723002</v>
       </c>
     </row>
     <row r="17">
@@ -915,22 +915,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.06657273038412</v>
+        <v>-2.171981394624519</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3689809057431008</v>
+        <v>-0.327142340542822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.725701397604274</v>
+        <v>-1.78327886323368</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.563047841307312</v>
+        <v>-1.659149899054187</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.681185960970782</v>
+        <v>-1.650023096903917</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4956862992763799</v>
+        <v>-0.2687624794084161</v>
       </c>
     </row>
     <row r="18">
@@ -941,22 +941,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2635859498020485</v>
+        <v>0.3004247185486211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.035573346969202</v>
+        <v>3.048625714076824</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.478978050833956</v>
+        <v>3.101005176879426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.518518688521139</v>
+        <v>2.365948559511454</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4681485598216408</v>
+        <v>0.5451395188667852</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.286826376378723</v>
+        <v>2.384799274804192</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>-0.4108654779709883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7600183292140645</v>
+        <v>0.7600183292140642</v>
       </c>
     </row>
     <row r="20">
@@ -996,15 +996,17 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3055948988076662</v>
+        <v>-0.3012084462784662</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.828870979914062</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8775425386432238</v>
+        <v>-0.8413833610395861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3231401817277869</v>
+        <v>-0.2358833827732357</v>
       </c>
     </row>
     <row r="21">
@@ -1015,18 +1017,18 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8191199510121052</v>
+        <v>0.8078109199486825</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.579376347549121</v>
+        <v>3.652406980964217</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>0.8187898931773802</v>
+        <v>0.9367423797322713</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.047691008082982</v>
+        <v>2.929036363029613</v>
       </c>
     </row>
     <row r="22">
@@ -1044,7 +1046,7 @@
         <v>-0.959580962940807</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.2821649507107707</v>
+        <v>-0.2821649507107709</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.3797264920710833</v>
@@ -1056,7 +1058,7 @@
         <v>-0.7317308739529784</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.188468284911316</v>
+        <v>-0.1884682849113159</v>
       </c>
     </row>
     <row r="23">
@@ -1067,22 +1069,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.866476369375037</v>
+        <v>-1.84652251896833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.221458492339156</v>
+        <v>-1.183799429069635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.205767679328671</v>
+        <v>-1.171874524938207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8987053633623591</v>
+        <v>-0.8605544867833107</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.31058506024132</v>
+        <v>-1.34868409148831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8147099417833441</v>
+        <v>-0.83227572104311</v>
       </c>
     </row>
     <row r="24">
@@ -1093,22 +1095,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2723944131622724</v>
+        <v>-0.240756919658681</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5144654869943431</v>
+        <v>0.5722138842963223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2526829342343059</v>
+        <v>0.2545174990421905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5872685893555534</v>
+        <v>0.6737436602228188</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1957838083977124</v>
+        <v>-0.1892022848235594</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3720162057110852</v>
+        <v>0.3420361656782666</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1124,7 @@
         <v>-0.6973170451127988</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.2050461996047023</v>
+        <v>-0.2050461996047024</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.5692860216457398</v>
@@ -1134,7 +1136,7 @@
         <v>-0.6687177073820509</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1722382967377994</v>
+        <v>-0.1722382967377993</v>
       </c>
     </row>
     <row r="26">
@@ -1145,20 +1147,20 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.901442494882522</v>
+        <v>-0.9194984292068076</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6145482515889509</v>
+        <v>-0.5997686114582756</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7057070146270926</v>
+        <v>-0.7049188254702393</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8605473605638544</v>
+        <v>-0.8863813932520386</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5482623531365967</v>
+        <v>-0.5478703877279369</v>
       </c>
     </row>
     <row r="27">
@@ -1169,20 +1171,20 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.07464435495786294</v>
+        <v>-0.1965304305483754</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6587912991328587</v>
+        <v>0.7219238988229669</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2.235508101195695</v>
+        <v>3.523044072434991</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1193821058234851</v>
+        <v>-0.119265712012993</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5126377076940096</v>
+        <v>0.4246201248798042</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1208,7 @@
         <v>0.1334557149833042</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.4752809129997959</v>
+        <v>0.475280912999796</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.1405642593433447</v>
@@ -1223,22 +1225,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.773703045602945</v>
+        <v>-1.724345064735465</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.221571192625621</v>
+        <v>-1.226054504503897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7630485823466736</v>
+        <v>-0.8638493060158128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4676993891673029</v>
+        <v>-0.4277945049789187</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8666478951903925</v>
+        <v>-0.8719643679291584</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4127520405432208</v>
+        <v>-0.3960014969753083</v>
       </c>
     </row>
     <row r="30">
@@ -1249,22 +1251,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4523978238555122</v>
+        <v>0.4648732096474071</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.119026566312316</v>
+        <v>1.120314220012084</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.025130744973907</v>
+        <v>1.019363799828093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.200964436269148</v>
+        <v>1.206848116953852</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4740391533614199</v>
+        <v>0.5373461244198945</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8956869975334998</v>
+        <v>0.9599734782906097</v>
       </c>
     </row>
     <row r="31">
@@ -1284,7 +1286,7 @@
         <v>0.1824926535962659</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.6499180273234433</v>
+        <v>0.6499180273234436</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1640427944122334</v>
@@ -1301,22 +1303,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9204755088309023</v>
+        <v>-0.8967493848309785</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7070135542340434</v>
+        <v>-0.6998773245811162</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7300278455198989</v>
+        <v>-0.7447782576304086</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.416403605286966</v>
+        <v>-0.4068175272324459</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6850525891922699</v>
+        <v>-0.7157232467076047</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3576308523588018</v>
+        <v>-0.329279397054933</v>
       </c>
     </row>
     <row r="33">
@@ -1327,22 +1329,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.529422653007074</v>
+        <v>2.239499015687787</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.533219522761352</v>
+        <v>2.580000216116451</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.472805114276429</v>
+        <v>4.239969862831009</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.776200773808843</v>
+        <v>3.777277250825255</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.087871104650521</v>
+        <v>1.239383816142929</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.999859357417512</v>
+        <v>2.214010679432728</v>
       </c>
     </row>
     <row r="34">
@@ -1366,7 +1368,7 @@
         <v>-0.4629685022286843</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0.6798948381705293</v>
+        <v>0.6798948381705296</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.3113336518010456</v>
@@ -1389,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.182139276364409</v>
+        <v>-1.28775395040028</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2229451938598431</v>
+        <v>-0.1933489452284486</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.9465835015088323</v>
+        <v>-0.9427056439693284</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2443424039421023</v>
+        <v>-0.09946602949385749</v>
       </c>
     </row>
     <row r="36">
@@ -1409,22 +1411,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.710830093949458</v>
+        <v>1.668231471903092</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.557651725778758</v>
+        <v>1.515143585122269</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.1945205307531294</v>
+        <v>0.2540571700594059</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.686099219591531</v>
+        <v>1.650564213631157</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.2319517543038792</v>
+        <v>0.2867676812557636</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.251171817992264</v>
+        <v>1.421128111841304</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1450,7 @@
         <v>-0.4972250072234596</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.7302024094363735</v>
+        <v>0.7302024094363738</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.4148112525045176</v>
@@ -1467,16 +1469,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.9112922030822715</v>
+        <v>-0.9103067193605519</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2188510209831052</v>
+        <v>-0.231102734458042</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8593682797522271</v>
+        <v>-0.869988057926617</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2640460283928215</v>
+        <v>-0.1886771481183163</v>
       </c>
     </row>
     <row r="39">
@@ -1489,16 +1491,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.4465465039147765</v>
+        <v>0.8520586806042347</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.073332495825288</v>
+        <v>3.044289737259608</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7283491712570985</v>
+        <v>0.8578015405616964</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.897273444380084</v>
+        <v>3.266947724941673</v>
       </c>
     </row>
     <row r="40">
@@ -1516,19 +1518,19 @@
         <v>-0.3455217655870159</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.3213454544195953</v>
+        <v>0.3213454544195952</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.1265576601859681</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0.3302310944839939</v>
+        <v>0.3302310944839936</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-0.2341515776926836</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.324656726165916</v>
+        <v>0.3246567261659162</v>
       </c>
     </row>
     <row r="41">
@@ -1539,22 +1541,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8395368647719987</v>
+        <v>-0.7760633901659774</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2139803390366355</v>
+        <v>-0.1596025812887378</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5149079533731736</v>
+        <v>-0.5575518131620654</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.09252928481054584</v>
+        <v>-0.03842515555921766</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5701934807930839</v>
+        <v>-0.5118344907279846</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.01677010187516033</v>
+        <v>0.01139300872997953</v>
       </c>
     </row>
     <row r="42">
@@ -1565,22 +1567,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08664003767634619</v>
+        <v>0.1082989927382368</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8108601296230594</v>
+        <v>0.8039592910858641</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.3149314491486928</v>
+        <v>0.2784807192655805</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6534600285390461</v>
+        <v>0.7416286226866761</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.04356504497152666</v>
+        <v>0.09938614161125847</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.6526091497183942</v>
+        <v>0.6675494426200491</v>
       </c>
     </row>
     <row r="43">
@@ -1594,19 +1596,19 @@
         <v>-0.3516567822036699</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.3270512012028727</v>
+        <v>0.3270512012028726</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.1768748809522111</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.461525485203707</v>
+        <v>0.4615254852037066</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.2765649038001002</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3834638106003999</v>
+        <v>0.3834638106004001</v>
       </c>
     </row>
     <row r="44">
@@ -1617,22 +1619,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6469209941537747</v>
+        <v>-0.6201004076250486</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1728206669499187</v>
+        <v>-0.149782897905193</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5730950479507998</v>
+        <v>-0.5929841310395528</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.09954581423277856</v>
+        <v>-0.06294896956062584</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5443178043070684</v>
+        <v>-0.5064869678332506</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.0166953848473796</v>
+        <v>0.004123624046828287</v>
       </c>
     </row>
     <row r="45">
@@ -1643,22 +1645,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1352365943542696</v>
+        <v>0.1680288496470111</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.116312843247838</v>
+        <v>1.144864700470429</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6689282173311181</v>
+        <v>0.5469530356131032</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.301325654376698</v>
+        <v>1.404422763681491</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08680108151067836</v>
+        <v>0.1499071820208801</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9675307990234913</v>
+        <v>1.001191448516481</v>
       </c>
     </row>
     <row r="46">
